--- a/Bench-in-loop/Dense_Linear_Algebra/DLA comparison.xlsx
+++ b/Bench-in-loop/Dense_Linear_Algebra/DLA comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ikerlan-my.sharepoint.com/personal/mrodriguez_ikerlan_es/Documents/Documentos/GitHub/MARS-data/Bench-in-loop/Dense_Linear_Algebra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="381" documentId="8_{D0BF2C62-6C53-42BC-8F11-EACCC5E617D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0978C64-E064-4A75-806D-8C7BBFACFAA0}"/>
+  <xr:revisionPtr revIDLastSave="398" documentId="8_{D0BF2C62-6C53-42BC-8F11-EACCC5E617D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{822B3585-4723-41C2-AB58-BC3ABAA9D768}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="1" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="2" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
   </bookViews>
   <sheets>
     <sheet name="gaussian3" sheetId="19" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>Std.Dev (ms)</t>
   </si>
   <si>
-    <t>Normalized data</t>
-  </si>
-  <si>
     <t>OPT traditional Allocation</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>kernel: compress</t>
+  </si>
+  <si>
+    <t>Normalized mean</t>
   </si>
 </sst>
 </file>
@@ -414,6 +414,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -423,34 +435,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -32507,8 +32507,8 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32527,38 +32527,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="30" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="32"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -32755,7 +32755,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B9" s="18">
         <f>B7/B$7</f>
@@ -32812,38 +32812,38 @@
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="32"/>
+      <c r="A11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="30" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="30" t="s">
+      <c r="H13" s="29"/>
+      <c r="I13" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="32"/>
+      <c r="J13" s="29"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33036,7 +33036,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B19" s="18">
         <f>B17/B$7</f>
@@ -33081,38 +33081,38 @@
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="27"/>
+      <c r="A21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="31"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="33" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="33" t="s">
+      <c r="H23" s="27"/>
+      <c r="I23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="34"/>
+      <c r="J23" s="27"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33144,7 +33144,7 @@
         <v>12</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -33309,7 +33309,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B29" s="18">
         <f>B27/B$7</f>
@@ -33354,38 +33354,38 @@
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="27"/>
+      <c r="A31" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="31"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="33" t="s">
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="33" t="s">
+      <c r="H33" s="27"/>
+      <c r="I33" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="34"/>
+      <c r="J33" s="27"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33396,7 +33396,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>7</v>
@@ -33417,7 +33417,7 @@
         <v>12</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -33566,7 +33566,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B39" s="18">
         <f>B37/B$7</f>
@@ -33611,38 +33611,38 @@
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="27"/>
+      <c r="A41" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="31"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="30" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="32"/>
-      <c r="I43" s="30" t="s">
+      <c r="H43" s="29"/>
+      <c r="I43" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="32"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33653,7 +33653,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>7</v>
@@ -33674,7 +33674,7 @@
         <v>12</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -33823,7 +33823,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B49" s="18">
         <f>B47/B$7</f>
@@ -33868,14 +33868,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="G43:H43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -33888,6 +33880,14 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="B23:F23"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33902,8 +33902,8 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE46" sqref="AE46"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33922,38 +33922,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="30" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="32"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33985,7 +33985,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -34150,7 +34150,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B9" s="18">
         <f>B7/B$7</f>
@@ -34207,38 +34207,38 @@
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="32"/>
+      <c r="A11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="33" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="33" t="s">
+      <c r="H13" s="27"/>
+      <c r="I13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="34"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -34270,7 +34270,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -34431,7 +34431,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B19" s="18">
         <f>B17/B$7</f>
@@ -34476,38 +34476,38 @@
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="27"/>
+      <c r="A21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="31"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="30" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="30" t="s">
+      <c r="H23" s="29"/>
+      <c r="I23" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="32"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -34701,7 +34701,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B29" s="18">
         <f>B27/B$7</f>
@@ -34746,38 +34746,38 @@
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="27"/>
+      <c r="A31" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="31"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="30" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="30" t="s">
+      <c r="H33" s="29"/>
+      <c r="I33" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="32"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -34788,7 +34788,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>7</v>
@@ -34809,7 +34809,7 @@
         <v>12</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -34958,7 +34958,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B39" s="18">
         <f>B37/B$7</f>
@@ -35003,38 +35003,38 @@
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="27"/>
+      <c r="A41" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="31"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="30" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="32"/>
-      <c r="I43" s="30" t="s">
+      <c r="H43" s="29"/>
+      <c r="I43" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="32"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -35045,7 +35045,7 @@
         <v>5</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>7</v>
@@ -35066,7 +35066,7 @@
         <v>12</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -35215,7 +35215,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B49" s="18">
         <f>B47/B$7</f>
@@ -35260,6 +35260,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="I43:J43"/>
@@ -35271,15 +35280,6 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="A41:B42"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35294,13 +35294,13 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
@@ -35312,36 +35312,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -35355,7 +35355,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>9</v>
@@ -35364,16 +35364,16 @@
         <v>10</v>
       </c>
       <c r="H4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="J4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="K4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -35538,7 +35538,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B9" s="18">
         <f>B7/B$7</f>
@@ -35595,36 +35595,36 @@
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="32"/>
+      <c r="A11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="30" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="29"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -35638,7 +35638,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>9</v>
@@ -35647,16 +35647,16 @@
         <v>10</v>
       </c>
       <c r="H14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="J14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="K14" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -35817,7 +35817,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B19" s="18">
         <f>B17/B$7</f>
@@ -35862,36 +35862,36 @@
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="27"/>
+      <c r="A21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="31"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="33" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="33" t="s">
+      <c r="G23" s="27"/>
+      <c r="H23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="27"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -35905,7 +35905,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>9</v>
@@ -35914,16 +35914,16 @@
         <v>10</v>
       </c>
       <c r="H24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="J24" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="K24" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -36088,7 +36088,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B29" s="18">
         <f>B27/B$7</f>
@@ -36133,36 +36133,36 @@
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="27"/>
+      <c r="A31" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="31"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="30" t="s">
+      <c r="G33" s="29"/>
+      <c r="H33" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -36173,10 +36173,10 @@
         <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>9</v>
@@ -36185,16 +36185,16 @@
         <v>10</v>
       </c>
       <c r="H34" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="J34" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J34" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="K34" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -36347,7 +36347,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B39" s="18">
         <f>B37/B$7</f>
@@ -36392,36 +36392,36 @@
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="27"/>
+      <c r="A41" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="31"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="30" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="32"/>
-      <c r="H43" s="30" t="s">
+      <c r="G43" s="29"/>
+      <c r="H43" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -36432,10 +36432,10 @@
         <v>5</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>9</v>
@@ -36444,16 +36444,16 @@
         <v>10</v>
       </c>
       <c r="H44" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="J44" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J44" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="K44" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -36606,7 +36606,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B49" s="18">
         <f>B47/B$7</f>
@@ -36651,14 +36651,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:G43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -36671,6 +36663,14 @@
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -36686,12 +36686,12 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:K29"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
@@ -36703,36 +36703,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -36746,7 +36746,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>9</v>
@@ -36755,16 +36755,16 @@
         <v>10</v>
       </c>
       <c r="H4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="J4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="K4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -36929,7 +36929,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B9" s="18">
         <f>B7/B$7</f>
@@ -36974,36 +36974,36 @@
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="32"/>
+      <c r="A11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="30" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="29"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -37017,7 +37017,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>9</v>
@@ -37026,16 +37026,16 @@
         <v>10</v>
       </c>
       <c r="H14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="J14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="K14" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -37196,7 +37196,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B19" s="18">
         <f>B17/B$7</f>
@@ -37241,36 +37241,36 @@
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="27"/>
+      <c r="A21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="31"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="33" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="33" t="s">
+      <c r="G23" s="27"/>
+      <c r="H23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="27"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -37284,7 +37284,7 @@
         <v>6</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>9</v>
@@ -37293,16 +37293,16 @@
         <v>10</v>
       </c>
       <c r="H24" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="24" t="s">
+      <c r="J24" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="K24" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -37467,7 +37467,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B29" s="18">
         <f>B27/B$7</f>
@@ -37512,36 +37512,36 @@
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="27"/>
+      <c r="A31" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="31"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="30" t="s">
+      <c r="G33" s="29"/>
+      <c r="H33" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -37552,10 +37552,10 @@
         <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>9</v>
@@ -37564,16 +37564,16 @@
         <v>10</v>
       </c>
       <c r="H34" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="J34" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J34" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="K34" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -37726,7 +37726,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B39" s="18">
         <f>B37/B$7</f>
@@ -37771,36 +37771,36 @@
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="27"/>
+      <c r="A41" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="31"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="30" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="32"/>
-      <c r="H43" s="30" t="s">
+      <c r="G43" s="29"/>
+      <c r="H43" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -37811,10 +37811,10 @@
         <v>5</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="F44" s="8" t="s">
         <v>9</v>
@@ -37823,16 +37823,16 @@
         <v>10</v>
       </c>
       <c r="H44" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="J44" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J44" s="20" t="s">
-        <v>29</v>
-      </c>
       <c r="K44" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -37985,7 +37985,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B49" s="18">
         <f>B47/B$7</f>
@@ -38030,6 +38030,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:J43"/>
@@ -38041,15 +38050,6 @@
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:J33"/>
     <mergeCell ref="A41:B42"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38065,7 +38065,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38085,40 +38085,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="31" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="34"/>
+      <c r="L3" s="27"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -38132,16 +38132,16 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>9</v>
@@ -38150,13 +38150,13 @@
         <v>10</v>
       </c>
       <c r="K4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="M4" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -38349,7 +38349,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B9" s="18">
         <f>B7/B$7</f>
@@ -38402,40 +38402,40 @@
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="32"/>
+      <c r="A11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="31" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33" t="s">
+      <c r="J13" s="29"/>
+      <c r="K13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="34"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -38449,16 +38449,16 @@
         <v>6</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>9</v>
@@ -38467,13 +38467,13 @@
         <v>10</v>
       </c>
       <c r="K14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="M14" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -38662,7 +38662,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B19" s="18">
         <f>B17/B$7</f>
@@ -38715,40 +38715,40 @@
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="27"/>
+      <c r="A21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="31"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="31" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="33" t="s">
+      <c r="J23" s="36"/>
+      <c r="K23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="34"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -38762,16 +38762,16 @@
         <v>6</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="9" t="s">
+      <c r="H24" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>9</v>
@@ -38780,13 +38780,13 @@
         <v>10</v>
       </c>
       <c r="K24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L24" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="M24" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -38979,7 +38979,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B29" s="18">
         <f>B27/B$7</f>
@@ -39032,40 +39032,40 @@
     </row>
     <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="27"/>
+      <c r="A31" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="31"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="31" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="33" t="s">
+      <c r="J33" s="29"/>
+      <c r="K33" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="34"/>
+      <c r="L33" s="27"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -39076,19 +39076,19 @@
         <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="H34" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>9</v>
@@ -39097,13 +39097,13 @@
         <v>10</v>
       </c>
       <c r="K34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="M34" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -39284,7 +39284,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B39" s="18">
         <f>B37/B$7</f>
@@ -39337,40 +39337,40 @@
     </row>
     <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="27"/>
+      <c r="A41" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="31"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="31" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J43" s="32"/>
-      <c r="K43" s="33" t="s">
+      <c r="J43" s="29"/>
+      <c r="K43" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="34"/>
+      <c r="L43" s="27"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -39381,19 +39381,19 @@
         <v>5</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="G44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="9" t="s">
+      <c r="H44" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>9</v>
@@ -39402,13 +39402,13 @@
         <v>10</v>
       </c>
       <c r="K44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L44" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="M44" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -39589,7 +39589,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B49" s="18">
         <f>B47/B$7</f>
@@ -39642,15 +39642,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K33:L33"/>
@@ -39662,6 +39653,15 @@
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39676,12 +39676,12 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
@@ -39696,40 +39696,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="31" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="34"/>
+      <c r="L3" s="27"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -39743,16 +39743,16 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>9</v>
@@ -39761,13 +39761,13 @@
         <v>10</v>
       </c>
       <c r="K4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="M4" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -39960,7 +39960,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B9" s="18">
         <f>B7/B$7</f>
@@ -40013,40 +40013,40 @@
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="32"/>
+      <c r="A11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="31" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33" t="s">
+      <c r="J13" s="29"/>
+      <c r="K13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="34"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -40060,16 +40060,16 @@
         <v>6</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>9</v>
@@ -40078,13 +40078,13 @@
         <v>10</v>
       </c>
       <c r="K14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="M14" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -40273,7 +40273,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B19" s="18">
         <f>B17/B$7</f>
@@ -40326,40 +40326,40 @@
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="27"/>
+      <c r="A21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="31"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="31" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="33" t="s">
+      <c r="J23" s="36"/>
+      <c r="K23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="34"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -40373,16 +40373,16 @@
         <v>6</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="9" t="s">
+      <c r="H24" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>9</v>
@@ -40391,13 +40391,13 @@
         <v>10</v>
       </c>
       <c r="K24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L24" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="M24" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -40590,7 +40590,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B29" s="18">
         <f>B27/B$7</f>
@@ -40643,40 +40643,40 @@
     </row>
     <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="27"/>
+      <c r="A31" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="31"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="31" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="33" t="s">
+      <c r="J33" s="29"/>
+      <c r="K33" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="34"/>
+      <c r="L33" s="27"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -40687,19 +40687,19 @@
         <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="H34" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>9</v>
@@ -40708,13 +40708,13 @@
         <v>10</v>
       </c>
       <c r="K34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L34" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="M34" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -40895,7 +40895,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B39" s="18">
         <f>B37/B$7</f>
@@ -40948,40 +40948,40 @@
     </row>
     <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="27"/>
+      <c r="A41" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="31"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="31" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J43" s="32"/>
-      <c r="K43" s="33" t="s">
+      <c r="J43" s="29"/>
+      <c r="K43" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="34"/>
+      <c r="L43" s="27"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -40992,19 +40992,19 @@
         <v>5</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="G44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="9" t="s">
+      <c r="H44" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>9</v>
@@ -41013,13 +41013,13 @@
         <v>10</v>
       </c>
       <c r="K44" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L44" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="M44" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -41200,7 +41200,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B49" s="18">
         <f>B47/B$7</f>
@@ -41253,14 +41253,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="B23:H23"/>
@@ -41273,6 +41265,14 @@
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41301,39 +41301,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -41347,7 +41347,7 @@
         <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>9</v>
@@ -41356,25 +41356,25 @@
         <v>10</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="N4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -41529,39 +41529,39 @@
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="27"/>
+      <c r="A11" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="31"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="30" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="32"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="29"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -41575,7 +41575,7 @@
         <v>6</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>9</v>
@@ -41584,25 +41584,25 @@
         <v>10</v>
       </c>
       <c r="H14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="J14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="M14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M14" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="N14" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -41757,39 +41757,39 @@
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="27"/>
+      <c r="A21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="31"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="30" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="30" t="s">
+      <c r="G23" s="29"/>
+      <c r="H23" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -41800,10 +41800,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>9</v>
@@ -41812,25 +41812,25 @@
         <v>10</v>
       </c>
       <c r="H24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="J24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="K24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="L24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="M24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="N24" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -41985,39 +41985,39 @@
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="27"/>
+      <c r="A31" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="31"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="30" t="s">
+      <c r="G33" s="29"/>
+      <c r="H33" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="32"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="29"/>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -42028,10 +42028,10 @@
         <v>5</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>9</v>
@@ -42040,25 +42040,25 @@
         <v>10</v>
       </c>
       <c r="H34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="K34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="L34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="M34" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M34" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="N34" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
@@ -42213,6 +42213,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="A11:B12"/>
     <mergeCell ref="H23:M23"/>
     <mergeCell ref="H33:M33"/>
     <mergeCell ref="A21:B22"/>
@@ -42221,14 +42229,6 @@
     <mergeCell ref="A31:B32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="A11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42237,11 +42237,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b02756e4-a949-43a2-8886-57b0f09f47fd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42478,27 +42479,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b02756e4-a949-43a2-8886-57b0f09f47fd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9C89B2-1188-4913-8FD6-997CC58F05FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33DF58D7-67E4-457B-B2EF-D09ED4B2795A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b02756e4-a949-43a2-8886-57b0f09f47fd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ad9e9aeb-79f9-4415-8f12-09127192173b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42523,9 +42514,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33DF58D7-67E4-457B-B2EF-D09ED4B2795A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9C89B2-1188-4913-8FD6-997CC58F05FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b02756e4-a949-43a2-8886-57b0f09f47fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ad9e9aeb-79f9-4415-8f12-09127192173b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Bench-in-loop/Dense_Linear_Algebra/DLA comparison.xlsx
+++ b/Bench-in-loop/Dense_Linear_Algebra/DLA comparison.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="398" documentId="8_{D0BF2C62-6C53-42BC-8F11-EACCC5E617D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{822B3585-4723-41C2-AB58-BC3ABAA9D768}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="2" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="2" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
   </bookViews>
   <sheets>
     <sheet name="gaussian3" sheetId="19" r:id="rId1"/>
@@ -414,18 +414,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -435,22 +423,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -32527,38 +32527,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="28" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="28" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="29"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -32812,38 +32812,38 @@
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="28" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="28" t="s">
+      <c r="H13" s="32"/>
+      <c r="I13" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="29"/>
+      <c r="J13" s="32"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33081,38 +33081,38 @@
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="26" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="26" t="s">
+      <c r="H23" s="34"/>
+      <c r="I23" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="27"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33354,38 +33354,38 @@
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="26" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="26" t="s">
+      <c r="H33" s="34"/>
+      <c r="I33" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="27"/>
+      <c r="J33" s="34"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33611,38 +33611,38 @@
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="31"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="32"/>
-      <c r="B42" s="35"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="28" t="s">
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="28" t="s">
+      <c r="H43" s="32"/>
+      <c r="I43" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="29"/>
+      <c r="J43" s="32"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33868,6 +33868,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -33880,14 +33888,6 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="B23:F23"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="G43:H43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33922,38 +33922,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="28" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="28" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="29"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -34207,38 +34207,38 @@
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="26" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="26" t="s">
+      <c r="H13" s="34"/>
+      <c r="I13" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="27"/>
+      <c r="J13" s="34"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -34476,38 +34476,38 @@
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="28" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="28" t="s">
+      <c r="H23" s="32"/>
+      <c r="I23" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="29"/>
+      <c r="J23" s="32"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -34746,38 +34746,38 @@
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="28" t="s">
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="28" t="s">
+      <c r="H33" s="32"/>
+      <c r="I33" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="29"/>
+      <c r="J33" s="32"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -35003,38 +35003,38 @@
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="31"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="32"/>
-      <c r="B42" s="35"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="28" t="s">
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="28" t="s">
+      <c r="H43" s="32"/>
+      <c r="I43" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="29"/>
+      <c r="J43" s="32"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -35260,15 +35260,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="I43:J43"/>
@@ -35280,6 +35271,15 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="A41:B42"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35295,7 +35295,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+      <selection activeCell="A9" sqref="A9:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35312,36 +35312,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="28" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="29"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -35595,36 +35595,36 @@
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="28" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="28" t="s">
+      <c r="G13" s="32"/>
+      <c r="H13" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="29"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -35862,36 +35862,36 @@
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="26" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="26" t="s">
+      <c r="G23" s="34"/>
+      <c r="H23" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="27"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -36133,36 +36133,36 @@
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="28" t="s">
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="28" t="s">
+      <c r="G33" s="32"/>
+      <c r="H33" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="36"/>
-      <c r="J33" s="29"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -36392,36 +36392,36 @@
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="31"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="32"/>
-      <c r="B42" s="35"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="28" t="s">
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="28" t="s">
+      <c r="G43" s="32"/>
+      <c r="H43" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="36"/>
-      <c r="J43" s="29"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -36651,6 +36651,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -36663,14 +36671,6 @@
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -36703,36 +36703,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="28" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="29"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -36974,36 +36974,36 @@
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="28" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="28" t="s">
+      <c r="G13" s="32"/>
+      <c r="H13" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="29"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -37241,36 +37241,36 @@
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="26" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="26" t="s">
+      <c r="G23" s="34"/>
+      <c r="H23" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="27"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -37512,36 +37512,36 @@
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="28" t="s">
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="28" t="s">
+      <c r="G33" s="32"/>
+      <c r="H33" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="36"/>
-      <c r="J33" s="29"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -37771,36 +37771,36 @@
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="31"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="32"/>
-      <c r="B42" s="35"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="28" t="s">
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="28" t="s">
+      <c r="G43" s="32"/>
+      <c r="H43" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="36"/>
-      <c r="J43" s="29"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -38030,15 +38030,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:J43"/>
@@ -38050,6 +38041,15 @@
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:J33"/>
     <mergeCell ref="A41:B42"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38085,40 +38085,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="36" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="26" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="27"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -38402,40 +38402,40 @@
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="36" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="26" t="s">
+      <c r="J13" s="32"/>
+      <c r="K13" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="27"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -38715,40 +38715,40 @@
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="36" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="36"/>
-      <c r="K23" s="26" t="s">
+      <c r="J23" s="31"/>
+      <c r="K23" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="27"/>
+      <c r="L23" s="34"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -39032,40 +39032,40 @@
     </row>
     <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="36" t="s">
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="29"/>
-      <c r="K33" s="26" t="s">
+      <c r="J33" s="32"/>
+      <c r="K33" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="27"/>
+      <c r="L33" s="34"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -39337,40 +39337,40 @@
     </row>
     <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="31"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="32"/>
-      <c r="B42" s="35"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="36" t="s">
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J43" s="29"/>
-      <c r="K43" s="26" t="s">
+      <c r="J43" s="32"/>
+      <c r="K43" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="27"/>
+      <c r="L43" s="34"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -39642,6 +39642,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K33:L33"/>
@@ -39653,15 +39662,6 @@
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39696,40 +39696,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="36" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="26" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="27"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -40013,40 +40013,40 @@
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="36" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="26" t="s">
+      <c r="J13" s="32"/>
+      <c r="K13" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="27"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -40326,40 +40326,40 @@
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="36" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="36"/>
-      <c r="K23" s="26" t="s">
+      <c r="J23" s="31"/>
+      <c r="K23" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="27"/>
+      <c r="L23" s="34"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -40643,40 +40643,40 @@
     </row>
     <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="36" t="s">
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="29"/>
-      <c r="K33" s="26" t="s">
+      <c r="J33" s="32"/>
+      <c r="K33" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="27"/>
+      <c r="L33" s="34"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -40948,40 +40948,40 @@
     </row>
     <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="31"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="32"/>
-      <c r="B42" s="35"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="36" t="s">
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J43" s="29"/>
-      <c r="K43" s="26" t="s">
+      <c r="J43" s="32"/>
+      <c r="K43" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="27"/>
+      <c r="L43" s="34"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -41253,6 +41253,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="B23:H23"/>
@@ -41265,14 +41273,6 @@
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41301,39 +41301,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="28" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="32"/>
+      <c r="H3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="29"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -41529,39 +41529,39 @@
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="32"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="28" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="28" t="s">
+      <c r="G13" s="32"/>
+      <c r="H13" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="29"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -41757,39 +41757,39 @@
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="28" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="28" t="s">
+      <c r="G23" s="32"/>
+      <c r="H23" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="29"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -41985,39 +41985,39 @@
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="28" t="s">
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="28" t="s">
+      <c r="G33" s="32"/>
+      <c r="H33" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="29"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="32"/>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -42213,6 +42213,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:G33"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:M13"/>
@@ -42221,14 +42229,6 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="A11:B12"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42237,12 +42237,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b02756e4-a949-43a2-8886-57b0f09f47fd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42479,17 +42478,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b02756e4-a949-43a2-8886-57b0f09f47fd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33DF58D7-67E4-457B-B2EF-D09ED4B2795A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9C89B2-1188-4913-8FD6-997CC58F05FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b02756e4-a949-43a2-8886-57b0f09f47fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ad9e9aeb-79f9-4415-8f12-09127192173b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -42514,18 +42523,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9C89B2-1188-4913-8FD6-997CC58F05FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33DF58D7-67E4-457B-B2EF-D09ED4B2795A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b02756e4-a949-43a2-8886-57b0f09f47fd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ad9e9aeb-79f9-4415-8f12-09127192173b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Bench-in-loop/Dense_Linear_Algebra/DLA comparison.xlsx
+++ b/Bench-in-loop/Dense_Linear_Algebra/DLA comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ikerlan-my.sharepoint.com/personal/mrodriguez_ikerlan_es/Documents/Documentos/GitHub/MARS-data/Bench-in-loop/Dense_Linear_Algebra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="398" documentId="8_{D0BF2C62-6C53-42BC-8F11-EACCC5E617D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{822B3585-4723-41C2-AB58-BC3ABAA9D768}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="8_{D0BF2C62-6C53-42BC-8F11-EACCC5E617D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17E6B001-14F4-444E-A404-597A1B17199A}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="2" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="4" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
   </bookViews>
   <sheets>
     <sheet name="gaussian3" sheetId="19" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Kmeans819200" sheetId="23" r:id="rId6"/>
     <sheet name="Streamcluster" sheetId="15" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -487,7 +487,7 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="40"/>
+      <c:rotX val="50"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
       <c:perspective val="0"/>
@@ -531,9 +531,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="0.14416068266684748"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:w val="0.62689420344822466"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -542,8 +542,133 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TOTAL EXEC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(gaussian3!$A$1,gaussian3!$A$11,gaussian3!$A$21,gaussian3!$A$31,gaussian3!$A$41)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>traditional Allocation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OPT traditional Allocation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ScatterAlloc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Zero-Copy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Unified Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(gaussian3!$K$9,gaussian3!$K$19,gaussian3!$K$29,gaussian3!$K$39,gaussian3!$K$49)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94730863619975569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0951631007176339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9341924124389076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0806392775747995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>COPY API</c:v>
           </c:tx>
@@ -663,130 +788,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>TOTAL EXEC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(gaussian3!$A$1,gaussian3!$A$11,gaussian3!$A$21,gaussian3!$A$31,gaussian3!$A$41)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>traditional Allocation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPT traditional Allocation</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ScatterAlloc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Zero-Copy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Unified Memory</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(gaussian3!$K$9,gaussian3!$K$19,gaussian3!$K$29,gaussian3!$K$39,gaussian3!$K$49)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94730863619975569</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0951631007176339</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.9341924124389076</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0806392775747995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -933,6 +934,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.70339571733881E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-D93D-4694-8587-12C191275F5C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -1058,6 +1080,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1482,9 +1505,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="0.10872818166412472"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:w val="0.64074055244873751"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -1651,6 +1674,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2135,8 +2159,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.3354129750327751E-2"/>
-              <c:y val="0.28005415156748054"/>
+              <c:x val="2.4658391233124324E-2"/>
+              <c:y val="0.4275103792836536"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2341,9 +2365,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="0.11722815342032425"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:w val="0.65388832401287922"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -2494,6 +2518,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2962,8 +2987,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.9554040693136285E-2"/>
-              <c:y val="0.3104039574392527"/>
+              <c:x val="2.0586623736089934E-2"/>
+              <c:y val="0.39091550244466811"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3168,9 +3193,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="9.0155482121674291E-2"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:w val="0.6425340337795854"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -3337,6 +3362,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.7934813308478788E-3"/>
+                  <c:y val="1.3432117568046409E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-9638-4B4A-AF37-634322EBBE2B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -3470,6 +3516,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.3432117568046367E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9638-4B4A-AF37-634322EBBE2B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -3822,8 +3889,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.9396031213587095E-2"/>
-              <c:y val="0.30533599067735151"/>
+              <c:x val="2.0428599672371917E-2"/>
+              <c:y val="0.37473527975645915"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6012,9 +6079,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="0.10797410570447549"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:w val="0.6462129099060212"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -6181,6 +6248,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -6288,8 +6356,141 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gaussian3!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kernels: Fan2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(gaussian3!$A$1,gaussian3!$A$11,gaussian3!$A$21,gaussian3!$A$31,gaussian3!$A$41)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>traditional Allocation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OPT traditional Allocation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ScatterAlloc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Zero-Copy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Unified Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(gaussian3!$J$9,gaussian3!$J$19,gaussian3!$J$29,gaussian3!$J$39,gaussian3!$J$49)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0615478549110928</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0145435080720997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0148200229058613</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1138172721264739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>gaussian3!$I$4</c:f>
@@ -6417,139 +6618,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>gaussian3!$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>kernels: Fan2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(gaussian3!$A$1,gaussian3!$A$11,gaussian3!$A$21,gaussian3!$A$31,gaussian3!$A$41)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>traditional Allocation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPT traditional Allocation</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ScatterAlloc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Zero-Copy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Unified Memory</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(gaussian3!$J$9,gaussian3!$J$19,gaussian3!$J$29,gaussian3!$J$39,gaussian3!$J$49)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0615478549110928</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0145435080720997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0148200229058613</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1138172721264739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8245,7 +8313,7 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="40"/>
+      <c:rotX val="50"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
       <c:perspective val="0"/>
@@ -8289,10 +8357,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="0.11155721262495026"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
-          <c:h val="0.81955410382548477"/>
+          <c:w val="0.65980529904836061"/>
+          <c:h val="0.82849078178875524"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -8300,8 +8368,529 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>COPY API</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.3751494268554252E-3"/>
+                  <c:y val="1.5937857772636867E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-3FC2-40C7-8307-DB305FEC6AD0}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(gaussian3!$A$1,gaussian3!$A$11,gaussian3!$A$21,gaussian3!$A$31,gaussian3!$A$41)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>traditional Allocation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OPT traditional Allocation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ScatterAlloc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Zero-Copy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Unified Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(gaussian1024!$E$9,gaussian1024!$E$19,gaussian1024!$E$29,gaussian1024!$E$39,gaussian1024!$E$49)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0796199003459837</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99923382149141415</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SYNC API</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(gaussian3!$A$1,gaussian3!$A$11,gaussian3!$A$21,gaussian3!$A$31,gaussian3!$A$41)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>traditional Allocation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OPT traditional Allocation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ScatterAlloc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Zero-Copy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Unified Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(gaussian1024!$F$7,gaussian1024!$F$17,gaussian1024!$F$27,gaussian1024!$F$37,gaussian1024!$F$47)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.49685522645290497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52853861533333302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59037115000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55035044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0994194107142801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TOTAL EXEC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(gaussian3!$A$1,gaussian3!$A$11,gaussian3!$A$21,gaussian3!$A$31,gaussian3!$A$41)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>traditional Allocation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OPT traditional Allocation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ScatterAlloc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Zero-Copy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Unified Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(gaussian1024!$K$9,gaussian1024!$K$19,gaussian1024!$K$29,gaussian1024!$K$39,gaussian1024!$K$49)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0146750792693375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2300317818639621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0178573065986021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8894207030865107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>KERNEL LAUNCH API</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(gaussian3!$A$1,gaussian3!$A$11,gaussian3!$A$21,gaussian3!$A$31,gaussian3!$A$41)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>traditional Allocation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OPT traditional Allocation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ScatterAlloc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Zero-Copy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Unified Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(gaussian1024!$C$9,gaussian1024!$C$19,gaussian1024!$C$29,gaussian1024!$C$39,gaussian1024!$C$49)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0123884174964863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89595804876494023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1191156754814064</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0118502837174415</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D69F-44C6-9345-B374360E1564}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>AllocAPI</c:v>
           </c:tx>
@@ -8421,507 +9010,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5A59-4191-B28B-1F90070C00D9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>COPY API</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(gaussian3!$A$1,gaussian3!$A$11,gaussian3!$A$21,gaussian3!$A$31,gaussian3!$A$41)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>traditional Allocation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPT traditional Allocation</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ScatterAlloc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Zero-Copy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Unified Memory</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(gaussian1024!$E$9,gaussian1024!$E$19,gaussian1024!$E$29,gaussian1024!$E$39,gaussian1024!$E$49)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0796199003459837</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99923382149141415</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4090-4208-93DC-0834A68FB2CB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>SYNC API</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(gaussian3!$A$1,gaussian3!$A$11,gaussian3!$A$21,gaussian3!$A$31,gaussian3!$A$41)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>traditional Allocation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPT traditional Allocation</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ScatterAlloc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Zero-Copy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Unified Memory</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(gaussian1024!$F$7,gaussian1024!$F$17,gaussian1024!$F$27,gaussian1024!$F$37,gaussian1024!$F$47)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.49685522645290497</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52853861533333302</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.59037115000000007</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55035044</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0994194107142801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>TOTAL EXEC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(gaussian3!$A$1,gaussian3!$A$11,gaussian3!$A$21,gaussian3!$A$31,gaussian3!$A$41)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>traditional Allocation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPT traditional Allocation</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ScatterAlloc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Zero-Copy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Unified Memory</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(gaussian1024!$K$9,gaussian1024!$K$19,gaussian1024!$K$29,gaussian1024!$K$39,gaussian1024!$K$49)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0146750792693375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2300317818639621</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0178573065986021</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8894207030865107</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>KERNEL LAUNCH API</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(gaussian3!$A$1,gaussian3!$A$11,gaussian3!$A$21,gaussian3!$A$31,gaussian3!$A$41)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>traditional Allocation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPT traditional Allocation</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ScatterAlloc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Zero-Copy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Unified Memory</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(gaussian1024!$C$9,gaussian1024!$C$19,gaussian1024!$C$29,gaussian1024!$C$39,gaussian1024!$C$49)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0123884174964863</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.89595804876494023</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1191156754814064</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0118502837174415</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D69F-44C6-9345-B374360E1564}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9037,8 +9125,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="9.9884094555552569E-2"/>
-              <c:y val="0.3527248609864273"/>
+              <c:x val="4.7928992413405896E-2"/>
+              <c:y val="0.43985803251002736"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9243,9 +9331,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
-          <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:x val="0.11705770208439248"/>
+          <c:y val="2.0687335958005249E-2"/>
+          <c:w val="0.63686479692707454"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -9412,6 +9500,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -9519,8 +9608,141 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>gaussian1024!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kernels: Fan2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(gaussian3!$A$1,gaussian3!$A$11,gaussian3!$A$21,gaussian3!$A$31,gaussian3!$A$41)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>traditional Allocation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OPT traditional Allocation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ScatterAlloc</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Zero-Copy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Unified Memory</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(gaussian1024!$J$9,gaussian1024!$J$19,gaussian1024!$J$29,gaussian1024!$J$39,gaussian1024!$J$49)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.082825531352086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.183230063978074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.113471612482966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0646954757044798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>gaussian1024!$I$4</c:f>
@@ -9648,139 +9870,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5A59-4191-B28B-1F90070C00D9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>gaussian1024!$J$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>kernels: Fan2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="bg1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(gaussian3!$A$1,gaussian3!$A$11,gaussian3!$A$21,gaussian3!$A$31,gaussian3!$A$41)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>traditional Allocation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPT traditional Allocation</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ScatterAlloc</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Zero-Copy</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Unified Memory</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(gaussian1024!$J$9,gaussian1024!$J$19,gaussian1024!$J$29,gaussian1024!$J$39,gaussian1024!$J$49)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.082825531352086</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.183230063978074</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.113471612482966</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0646954757044798</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5A59-4191-B28B-1F90070C00D9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9896,8 +9985,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.1493624421641675E-2"/>
-              <c:y val="0.33983517519398143"/>
+              <c:x val="3.1765378749364512E-2"/>
+              <c:y val="0.38005048905777217"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -10102,9 +10191,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="0.10304159780485078"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:w val="0.67127637606551027"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -10505,6 +10594,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -10861,8 +10951,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.3353037246438952E-2"/>
-              <c:y val="0.3260972629830704"/>
+              <c:x val="3.5669086211767682E-2"/>
+              <c:y val="0.40893382542040713"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -11023,7 +11113,7 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="40"/>
+      <c:rotX val="50"/>
       <c:rotY val="20"/>
       <c:rAngAx val="0"/>
       <c:perspective val="0"/>
@@ -11067,10 +11157,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
-          <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
-          <c:h val="0.81955410382548477"/>
+          <c:x val="0.13500574807486879"/>
+          <c:y val="2.7486424529393361E-2"/>
+          <c:w val="0.61531022878564534"/>
+          <c:h val="0.68457964418291395"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -11236,6 +11326,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -11368,6 +11459,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.3804439925436371E-3"/>
+                  <c:y val="9.0051762036446152E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-B2D6-4795-8646-078D9DF7C988}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
@@ -11634,6 +11746,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -11852,8 +11965,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="8.1364952057611045E-2"/>
-              <c:y val="0.38727210981255156"/>
+              <c:x val="6.1893413631690562E-2"/>
+              <c:y val="0.36343337652865892"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -11952,7 +12065,9 @@
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="windowText" lastClr="000000"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -11966,9 +12081,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="E7E6E6">
-        <a:lumMod val="50000"/>
-      </a:srgbClr>
+      <a:sysClr val="windowText" lastClr="000000"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -12060,10 +12173,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="0.10348455710458979"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
-          <c:h val="0.81955410382548477"/>
+          <c:w val="0.6736874102580882"/>
+          <c:h val="0.82402549735150754"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -12213,6 +12326,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -12989,8 +13103,8 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="40"/>
-      <c:rotY val="20"/>
+      <c:rotX val="70"/>
+      <c:rotY val="30"/>
       <c:rAngAx val="0"/>
       <c:perspective val="0"/>
     </c:view3D>
@@ -13033,10 +13147,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
-          <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.81343380178256575"/>
-          <c:h val="0.81955410382548477"/>
+          <c:x val="0.12867423600519687"/>
+          <c:y val="1.9103825482916389E-2"/>
+          <c:w val="0.611421371076174"/>
+          <c:h val="0.68929688641496756"/>
         </c:manualLayout>
       </c:layout>
       <c:bar3DChart>
@@ -13467,6 +13581,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -13981,7 +14096,7 @@
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
       <c:rotX val="40"/>
-      <c:rotY val="30"/>
+      <c:rotY val="20"/>
       <c:rAngAx val="0"/>
       <c:perspective val="0"/>
     </c:view3D>
@@ -14024,9 +14139,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.7206391626089008E-2"/>
+          <c:x val="0.12210517790342745"/>
           <c:y val="2.2770647303387497E-2"/>
-          <c:w val="0.74041050325388946"/>
+          <c:w val="0.64553297991043179"/>
           <c:h val="0.81955410382548477"/>
         </c:manualLayout>
       </c:layout>
@@ -14177,6 +14292,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -14301,6 +14417,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -14649,8 +14766,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="4.2015201559950657E-2"/>
-              <c:y val="0.26484928595213125"/>
+              <c:x val="2.9677314579449811E-2"/>
+              <c:y val="0.37223408340643815"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -27831,15 +27948,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>186691</xdr:colOff>
+      <xdr:colOff>186690</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>120557</xdr:rowOff>
+      <xdr:rowOff>130081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>176893</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>600390</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>76448</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27869,15 +27986,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>124867</xdr:colOff>
+      <xdr:colOff>134391</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>179983</xdr:rowOff>
+      <xdr:rowOff>170458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>588818</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>548091</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>78206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27912,15 +28029,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>179763</xdr:colOff>
+      <xdr:colOff>174048</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>346</xdr:rowOff>
+      <xdr:rowOff>345</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>311727</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>587748</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
+      <xdr:rowOff>208390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27952,13 +28069,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>169372</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>136639</xdr:rowOff>
+      <xdr:rowOff>98193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>259773</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>69272</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>583072</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>136866</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28031,15 +28148,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>382904</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>169471</xdr:rowOff>
+      <xdr:colOff>592727</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>169273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>326070</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>21450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28076,13 +28193,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>210498</xdr:rowOff>
+      <xdr:rowOff>206687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>497864</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>220862</xdr:rowOff>
+      <xdr:rowOff>139546</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28111,16 +28228,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>501438</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104913</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7792</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>162756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>103909</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>421492</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>24437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28155,15 +28272,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>359352</xdr:colOff>
+      <xdr:colOff>359351</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19426</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:colOff>166914</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>137070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28193,15 +28310,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>418608</xdr:colOff>
+      <xdr:colOff>418607</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>212348</xdr:rowOff>
+      <xdr:rowOff>212347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>606135</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>226170</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>74028</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28236,15 +28353,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>411045</xdr:colOff>
+      <xdr:colOff>407235</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>203228</xdr:rowOff>
+      <xdr:rowOff>210847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>465685</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>214799</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139896</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28274,15 +28391,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>472786</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>36022</xdr:rowOff>
+      <xdr:colOff>368877</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>176441</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>20835</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32508,7 +32625,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="AB42" sqref="AB42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33903,7 +34020,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="Y43" sqref="Y43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35294,8 +35411,8 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:K9"/>
+    <sheetView topLeftCell="B12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y45" sqref="Y45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36686,7 +36803,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="AB43" sqref="AB43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38064,8 +38181,8 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39676,7 +39793,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42237,14 +42354,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b02756e4-a949-43a2-8886-57b0f09f47fd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005AC4E0CDA633FD45AD3FBF7B00AF232F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a4f38346409b1a654ca91995c1973336">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b02756e4-a949-43a2-8886-57b0f09f47fd" xmlns:ns4="ad9e9aeb-79f9-4415-8f12-09127192173b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d39c616c00b869b4c90ed30090611d1" ns3:_="" ns4:_="">
     <xsd:import namespace="b02756e4-a949-43a2-8886-57b0f09f47fd"/>
@@ -42477,7 +42586,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -42486,24 +42595,15 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9C89B2-1188-4913-8FD6-997CC58F05FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b02756e4-a949-43a2-8886-57b0f09f47fd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ad9e9aeb-79f9-4415-8f12-09127192173b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b02756e4-a949-43a2-8886-57b0f09f47fd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55CF9CEB-0A99-453B-AB49-7D58F426A4CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42522,10 +42622,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33DF58D7-67E4-457B-B2EF-D09ED4B2795A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9C89B2-1188-4913-8FD6-997CC58F05FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b02756e4-a949-43a2-8886-57b0f09f47fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ad9e9aeb-79f9-4415-8f12-09127192173b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Bench-in-loop/Dense_Linear_Algebra/DLA comparison.xlsx
+++ b/Bench-in-loop/Dense_Linear_Algebra/DLA comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ikerlan-my.sharepoint.com/personal/mrodriguez_ikerlan_es/Documents/Documentos/GitHub/MARS-data/Bench-in-loop/Dense_Linear_Algebra/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrodriguez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="473" documentId="8_{D0BF2C62-6C53-42BC-8F11-EACCC5E617D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17E6B001-14F4-444E-A404-597A1B17199A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33638A30-F4F2-4C94-AF26-D20BD25B37AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="4" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="748" activeTab="1" xr2:uid="{3BB41F9D-0BB3-4FC4-952D-A48197C80458}"/>
   </bookViews>
   <sheets>
     <sheet name="gaussian3" sheetId="19" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Kmeans819200" sheetId="23" r:id="rId6"/>
     <sheet name="Streamcluster" sheetId="15" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -414,6 +414,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -423,34 +435,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8610,24 +8610,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(gaussian1024!$F$7,gaussian1024!$F$17,gaussian1024!$F$27,gaussian1024!$F$37,gaussian1024!$F$47)</c:f>
+              <c:f>(gaussian1024!$F$9,gaussian1024!$F$19,gaussian1024!$F$29,gaussian1024!$F$39,gaussian1024!$F$49)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.49685522645290497</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52853861533333302</c:v>
+                  <c:v>1.0637678486480231</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59037115000000007</c:v>
+                  <c:v>1.1882156382146041</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55035044</c:v>
+                  <c:v>1.1076676075825995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0994194107142801</c:v>
+                  <c:v>2.2127560548434522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28891,9 +28891,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -28931,7 +28931,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -29037,7 +29037,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -29179,7 +29179,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -32644,38 +32644,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="30" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="32"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -32929,38 +32929,38 @@
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="30" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="30" t="s">
+      <c r="H13" s="29"/>
+      <c r="I13" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="32"/>
+      <c r="J13" s="29"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33198,38 +33198,38 @@
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="33" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="33" t="s">
+      <c r="H23" s="27"/>
+      <c r="I23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="34"/>
+      <c r="J23" s="27"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33471,38 +33471,38 @@
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="35"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="33" t="s">
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="33" t="s">
+      <c r="H33" s="27"/>
+      <c r="I33" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="34"/>
+      <c r="J33" s="27"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33728,38 +33728,38 @@
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="27"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="30" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="32"/>
-      <c r="I43" s="30" t="s">
+      <c r="H43" s="29"/>
+      <c r="I43" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="32"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -33985,14 +33985,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="G43:H43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G3:H3"/>
@@ -34005,6 +33997,14 @@
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="B23:F23"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34019,7 +34019,7 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Y43" sqref="Y43"/>
     </sheetView>
   </sheetViews>
@@ -34039,38 +34039,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="30" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="32"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -34324,38 +34324,38 @@
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="33" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="33" t="s">
+      <c r="H13" s="27"/>
+      <c r="I13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="34"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -34593,38 +34593,38 @@
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="30" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="30" t="s">
+      <c r="H23" s="29"/>
+      <c r="I23" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="32"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -34863,38 +34863,38 @@
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="30" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="30" t="s">
+      <c r="H33" s="29"/>
+      <c r="I33" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="32"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -35120,38 +35120,38 @@
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="27"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="30" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H43" s="32"/>
-      <c r="I43" s="30" t="s">
+      <c r="H43" s="29"/>
+      <c r="I43" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="32"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -35377,6 +35377,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="I43:J43"/>
@@ -35388,15 +35397,6 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="A41:B42"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35429,36 +35429,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -35712,36 +35712,36 @@
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="30" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="29"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -35979,36 +35979,36 @@
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="33" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="33" t="s">
+      <c r="G23" s="27"/>
+      <c r="H23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="27"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -36250,36 +36250,36 @@
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="30" t="s">
+      <c r="G33" s="29"/>
+      <c r="H33" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -36509,36 +36509,36 @@
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="27"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="30" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="32"/>
-      <c r="H43" s="30" t="s">
+      <c r="G43" s="29"/>
+      <c r="H43" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -36768,14 +36768,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:G43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -36788,6 +36780,14 @@
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -36820,36 +36820,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -37091,36 +37091,36 @@
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="30" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="29"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -37358,36 +37358,36 @@
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="33" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="33" t="s">
+      <c r="G23" s="27"/>
+      <c r="H23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="27"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -37629,36 +37629,36 @@
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="30" t="s">
+      <c r="G33" s="29"/>
+      <c r="H33" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -37888,36 +37888,36 @@
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:11" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="27"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="30" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="32"/>
-      <c r="H43" s="30" t="s">
+      <c r="G43" s="29"/>
+      <c r="H43" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="31"/>
-      <c r="J43" s="32"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="29"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -38147,6 +38147,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
     <mergeCell ref="B43:E43"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="H43:J43"/>
@@ -38158,15 +38167,6 @@
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="H33:J33"/>
     <mergeCell ref="A41:B42"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38181,7 +38181,7 @@
   </sheetPr>
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
@@ -38202,40 +38202,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="31" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="34"/>
+      <c r="L3" s="27"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -38519,40 +38519,40 @@
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="31" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33" t="s">
+      <c r="J13" s="29"/>
+      <c r="K13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="34"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -38832,40 +38832,40 @@
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="31" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="33" t="s">
+      <c r="J23" s="36"/>
+      <c r="K23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="34"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -39149,40 +39149,40 @@
     </row>
     <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="31" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="33" t="s">
+      <c r="J33" s="29"/>
+      <c r="K33" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="34"/>
+      <c r="L33" s="27"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -39454,40 +39454,40 @@
     </row>
     <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="27"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="31" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J43" s="32"/>
-      <c r="K43" s="33" t="s">
+      <c r="J43" s="29"/>
+      <c r="K43" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="34"/>
+      <c r="L43" s="27"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -39759,15 +39759,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K33:L33"/>
@@ -39779,6 +39770,15 @@
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -39813,40 +39813,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="31" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="34"/>
+      <c r="L3" s="27"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -40130,40 +40130,40 @@
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="31" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33" t="s">
+      <c r="J13" s="29"/>
+      <c r="K13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="34"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -40443,40 +40443,40 @@
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="31" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J23" s="31"/>
-      <c r="K23" s="33" t="s">
+      <c r="J23" s="36"/>
+      <c r="K23" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="34"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -40760,40 +40760,40 @@
     </row>
     <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="31" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J33" s="32"/>
-      <c r="K33" s="33" t="s">
+      <c r="J33" s="29"/>
+      <c r="K33" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="34"/>
+      <c r="L33" s="27"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -41065,40 +41065,40 @@
     </row>
     <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="41" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="27"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="31" t="s">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J43" s="32"/>
-      <c r="K43" s="33" t="s">
+      <c r="J43" s="29"/>
+      <c r="K43" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="34"/>
+      <c r="L43" s="27"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -41370,14 +41370,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="K43:L43"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="B23:H23"/>
@@ -41390,6 +41382,14 @@
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -41418,39 +41418,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="29"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -41646,39 +41646,39 @@
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="30" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="29"/>
+      <c r="H13" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="32"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="29"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -41874,39 +41874,39 @@
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="27"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="30" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="30" t="s">
+      <c r="G23" s="29"/>
+      <c r="H23" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -42102,39 +42102,39 @@
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:14" ht="21" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="27"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30" t="s">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="30" t="s">
+      <c r="G33" s="29"/>
+      <c r="H33" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="32"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="29"/>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -42330,6 +42330,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="A11:B12"/>
     <mergeCell ref="H23:M23"/>
     <mergeCell ref="H33:M33"/>
     <mergeCell ref="A21:B22"/>
@@ -42338,14 +42346,6 @@
     <mergeCell ref="A31:B32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="A11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42354,6 +42354,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b02756e4-a949-43a2-8886-57b0f09f47fd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005AC4E0CDA633FD45AD3FBF7B00AF232F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a4f38346409b1a654ca91995c1973336">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b02756e4-a949-43a2-8886-57b0f09f47fd" xmlns:ns4="ad9e9aeb-79f9-4415-8f12-09127192173b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d39c616c00b869b4c90ed30090611d1" ns3:_="" ns4:_="">
     <xsd:import namespace="b02756e4-a949-43a2-8886-57b0f09f47fd"/>
@@ -42586,24 +42603,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9C89B2-1188-4913-8FD6-997CC58F05FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b02756e4-a949-43a2-8886-57b0f09f47fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ad9e9aeb-79f9-4415-8f12-09127192173b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b02756e4-a949-43a2-8886-57b0f09f47fd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33DF58D7-67E4-457B-B2EF-D09ED4B2795A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55CF9CEB-0A99-453B-AB49-7D58F426A4CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42622,31 +42647,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33DF58D7-67E4-457B-B2EF-D09ED4B2795A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD9C89B2-1188-4913-8FD6-997CC58F05FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="b02756e4-a949-43a2-8886-57b0f09f47fd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ad9e9aeb-79f9-4415-8f12-09127192173b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{910ac815-f855-4a08-bf29-90b46552cf11}" enabled="0" method="" siteId="{910ac815-f855-4a08-bf29-90b46552cf11}" removed="1"/>
